--- a/Webprogramming/Commands&Terminologie.xlsx
+++ b/Webprogramming/Commands&Terminologie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\OneDrive\Bureaublad\School\Webprogramming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281554B7-1567-480A-A92B-18580E7B2120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FA85B-3BCD-476F-915F-F5D505CE1EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5E55FC1A-870D-4298-B33D-E900B80BF602}"/>
   </bookViews>
@@ -343,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -353,6 +353,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,6 +395,29 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -414,29 +439,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -450,16 +452,89 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED837B2-7622-DB53-37C4-3FBBCD502F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="563880"/>
+          <a:ext cx="3665220" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}" name="Table1" displayName="Table1" ref="C1:E1048576" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}" name="Table1" displayName="Table1" ref="C1:E1048576" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="C1:E1048576" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E1048576">
     <sortCondition ref="C1:C1048576"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{82AB2204-B0E9-4147-84A1-6699A3A6499F}" name="Command" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{97F5B2F9-FECE-4C1B-AA8E-77BFB67B4DAE}" name="Explanation" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0F304EAB-2610-4333-ABB6-7091B04575F6}" name="Example" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{97F5B2F9-FECE-4C1B-AA8E-77BFB67B4DAE}" name="Explanation" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0F304EAB-2610-4333-ABB6-7091B04575F6}" name="Example" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486BC9E9-1D77-42FD-B02B-B4B389B84CCD}">
   <dimension ref="C1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,13 +932,13 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1079,8 +1154,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Webprogramming/Commands&Terminologie.xlsx
+++ b/Webprogramming/Commands&Terminologie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\OneDrive\Bureaublad\School\Webprogramming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FA85B-3BCD-476F-915F-F5D505CE1EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4F88F-F9EB-4F72-967D-1DCDA513C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5E55FC1A-870D-4298-B33D-E900B80BF602}"/>
+    <workbookView xWindow="-48" yWindow="60" windowWidth="17280" windowHeight="9996" xr2:uid="{5E55FC1A-870D-4298-B33D-E900B80BF602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,6 +395,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -405,13 +412,6 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -458,13 +458,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -480,8 +480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11087100" y="563880"/>
-          <a:ext cx="3665220" cy="3467100"/>
+          <a:off x="11075096" y="539976"/>
+          <a:ext cx="3663863" cy="7539312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}" name="Table1" displayName="Table1" ref="C1:E1048576" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}" name="Table1" displayName="Table1" ref="C1:E1048576" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="C1:E1048576" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E1048576">
     <sortCondition ref="C1:C1048576"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486BC9E9-1D77-42FD-B02B-B4B389B84CCD}">
   <dimension ref="C1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Webprogramming/Commands&Terminologie.xlsx
+++ b/Webprogramming/Commands&Terminologie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\OneDrive\Bureaublad\School\Webprogramming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4F88F-F9EB-4F72-967D-1DCDA513C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F162300-852B-4AC0-8464-EE52A7260964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="60" windowWidth="17280" windowHeight="9996" xr2:uid="{5E55FC1A-870D-4298-B33D-E900B80BF602}"/>
+    <workbookView xWindow="5760" yWindow="1140" windowWidth="17280" windowHeight="10044" xr2:uid="{5E55FC1A-870D-4298-B33D-E900B80BF602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,13 +417,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -412,6 +427,13 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -526,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}" name="Table1" displayName="Table1" ref="C1:E1048576" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}" name="Table1" displayName="Table1" ref="C1:E1048576" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="C1:E1048576" xr:uid="{889DBB9D-E4EC-4AB4-B19B-027E6FD337C7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E1048576">
     <sortCondition ref="C1:C1048576"/>
@@ -837,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486BC9E9-1D77-42FD-B02B-B4B389B84CCD}">
-  <dimension ref="C1:G27"/>
+  <dimension ref="C1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +873,7 @@
     <col min="7" max="7" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
@@ -862,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
@@ -876,7 +898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
@@ -887,7 +909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
@@ -898,7 +920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>51</v>
       </c>
@@ -908,8 +930,12 @@
       <c r="E5" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="N5" t="e" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">GetColorCount($C$5:$J$56,M5)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>66</v>
       </c>
@@ -919,8 +945,12 @@
       <c r="E6" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="N6" t="e" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">GetColorCount($C$5:$J$56,M6)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -930,8 +960,12 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="N7" t="e" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">GetColorCount($C$5:$J$56,M7)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
@@ -941,8 +975,12 @@
       <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="N8" t="e" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">GetColorCount($C$5:$J$56,M8)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
@@ -952,8 +990,12 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="N9" t="e" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">GetColorCount($C$5:$J$56,M9)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
@@ -964,7 +1006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
@@ -975,7 +1017,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
@@ -986,7 +1028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>68</v>
       </c>
@@ -997,7 +1039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>67</v>
       </c>
@@ -1008,7 +1050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -1019,7 +1061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
